--- a/others/estimated_cost.xlsx
+++ b/others/estimated_cost.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\eosio_oya_contracts\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A0D40-A437-4FA8-83E6-D1361076C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29967553-0A7F-4EA7-8356-496A88E14B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blockchain" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blockchain!$A$1:$H$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>1.98 MB</t>
   </si>
@@ -82,6 +85,12 @@
   </si>
   <si>
     <t>e817f8400a2a4cdeb314936b786e2bc3cdbb6dbcedfe648d007be067a4c8bee9</t>
+  </si>
+  <si>
+    <t>450452d730a3f275373a038f127efc06a1a15362e57ddabe2495a2e8f9a585e0</t>
+  </si>
+  <si>
+    <t>self</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,11 +145,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +171,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,16 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
@@ -480,10 +505,12 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -502,57 +529,75 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
-        <v>126</v>
+        <v>6608</v>
       </c>
       <c r="F3" s="3">
-        <v>184</v>
+        <v>56464</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="F4" s="3">
-        <v>1640</v>
+        <v>184</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>217</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1640</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -604,7 +649,18 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H5" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
